--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_9_sine_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_9_sine_0.5_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.9100000000003</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>5.046468293750712e-16</v>
+        <v>5.163828021512356e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>37.13476459659688</v>
+        <v>35.1035621680703</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[29.87436312296451, 44.39516607022925]</t>
+          <t>[28.539370974147076, 41.66775336199352]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.704447665911579</v>
+        <v>1.566079220708425</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.490605523324886, 1.9182898084982725]</t>
+          <t>[1.3522370781217328, 1.7799213632951174]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>57.60124920144856</v>
+        <v>55.72682124626629</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[53.088552050996896, 62.113946351900225]</t>
+          <t>[51.32811479012665, 60.12552770240593]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.42390390390412</v>
+        <v>17.91291291291313</v>
       </c>
       <c r="X2" t="n">
-        <v>16.61015015015036</v>
+        <v>17.10086086086107</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.23765765765789</v>
+        <v>18.72496496496519</v>
       </c>
     </row>
     <row r="3">
@@ -652,39 +652,39 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.81000000000028</v>
+        <v>24.05000000000032</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>8.326672684688674e-15</v>
+        <v>2.220446049250313e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>3.130144210396917e-14</v>
+        <v>7.757740968750056e-13</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>44.34903501300839</v>
+        <v>39.80500862369955</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[32.49109309816113, 56.20697692785565]</t>
+          <t>[26.799188434170482, 52.81082881322862]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>4.947597886939548e-12</v>
+        <v>8.136850970785758e-09</v>
       </c>
       <c r="N3" t="n">
-        <v>4.947597886939548e-12</v>
+        <v>8.136850970785758e-09</v>
       </c>
       <c r="O3" t="n">
-        <v>1.389973926813502</v>
+        <v>2.182447749340658</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.1006580868432714, 1.6792897667837323]</t>
+          <t>[1.8553950606786582, 2.5095004380026573]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>60.62450342656354</v>
+        <v>59.78008777572396</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[53.62070288176086, 67.62830397136622]</t>
+          <t>[53.059098085979386, 66.50107746546854]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>18.54272272272294</v>
+        <v>15.6962962962965</v>
       </c>
       <c r="X3" t="n">
-        <v>17.44636636636658</v>
+        <v>14.44444444444464</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.63907907907931</v>
+        <v>16.94814814814837</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_9_sine_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_9_sine_0.5_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.86000000000029</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>5.163828021512356e-16</v>
+        <v>3.96508223080413e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>35.1035621680703</v>
+        <v>43.65664521459663</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[28.539370974147076, 41.66775336199352]</t>
+          <t>[36.8679685595122, 50.44532186968106]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.566079220708425</v>
+        <v>1.66671081721981</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.3522370781217328, 1.7799213632951174]</t>
+          <t>[1.50318447288881, 1.8302371615508104]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>55.72682124626629</v>
+        <v>59.54142065172677</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[51.32811479012665, 60.12552770240593]</t>
+          <t>[55.18919738039641, 63.89364392305714]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.91291291291313</v>
+        <v>17.54546546546568</v>
       </c>
       <c r="X2" t="n">
-        <v>17.10086086086107</v>
+        <v>16.92396396396417</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.72496496496519</v>
+        <v>18.16696696696719</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.05000000000032</v>
+        <v>23.81000000000028</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2.220446049250313e-13</v>
+        <v>1.598721155460225e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>7.757740968750056e-13</v>
+        <v>5.018703338082492e-14</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>39.80500862369955</v>
+        <v>42.67366301652729</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[26.799188434170482, 52.81082881322862]</t>
+          <t>[31.17723454075371, 54.17009149230086]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>8.136850970785758e-09</v>
+        <v>6.831868404333363e-12</v>
       </c>
       <c r="N3" t="n">
-        <v>8.136850970785758e-09</v>
+        <v>6.831868404333363e-12</v>
       </c>
       <c r="O3" t="n">
-        <v>2.182447749340658</v>
+        <v>1.239026532046425</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.8553950606786582, 2.5095004380026573]</t>
+          <t>[0.9245527929483472, 1.553500271144502]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>4.811706588725428e-13</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>4.811706588725428e-13</v>
       </c>
       <c r="S3" t="n">
-        <v>59.78008777572396</v>
+        <v>62.1034017969069</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[53.059098085979386, 66.50107746546854]</t>
+          <t>[55.28553953901939, 68.92126405479442]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>15.6962962962965</v>
+        <v>19.11473473473496</v>
       </c>
       <c r="X3" t="n">
-        <v>14.44444444444464</v>
+        <v>17.92304304304326</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.94814814814837</v>
+        <v>20.30642642642667</v>
       </c>
     </row>
   </sheetData>
